--- a/molecules-lists/Small intestine DESI neg APC-KRAS vs WT.xlsx
+++ b/molecules-lists/Small intestine DESI neg APC-KRAS vs WT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Beatson\dpo mva article\negative DESI\roc\tissue only\no norm\APC-KRAS vs WT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MarcelN\Scripts\adhoc-data-processing-pipeline-master\molecules-lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6613CC-0E62-47B8-A785-36F2E3AB3DF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2911C4C1-2520-4E72-86BA-549CF4BE0079}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA7F0A06-1105-4401-BD53-203E633E2DB4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>137.022 - APC-KRAS vs WT - AUC 0.79</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>331.260 - APC-KRAS vs WT - AUC 0.74</t>
+  </si>
+  <si>
+    <t>176.032 - APC-KRAS vs WT AUC 0.85</t>
+  </si>
+  <si>
+    <t>161.000 - APC-KRAS vs WT AUC 0.83</t>
+  </si>
+  <si>
+    <t>281.036 - APC-KRAS vs WT AUC 0.78</t>
+  </si>
+  <si>
+    <t>701.504 - APC-KRAS vs WT AUC 0.78</t>
   </si>
 </sst>
 </file>
@@ -415,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0B4ADD-D38A-4DDE-8295-79777C1592D0}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +527,38 @@
         <v>564.51176066999994</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>176.032087988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>162.00991275800001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>282.03756729600002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>702.51995637300001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
